--- a/ipearanceFront/media/usersSeedV3.xlsx
+++ b/ipearanceFront/media/usersSeedV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Par\Documents\MyCurrentGit\AttendanceDjango\ipearanceFront\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasly\Documents\MyCurrentGit\AttendanceDjango\ipearanceFront\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81419E2-86B5-466F-A110-8A0C7EA1DB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5575A-8ECA-4355-9594-B049183783AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11055" yWindow="8415" windowWidth="17520" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="859">
   <si>
     <t xml:space="preserve"> 'Κωνσταντίνα'</t>
   </si>
@@ -2594,6 +2594,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 'dani@yahoo.gr'</t>
+  </si>
+  <si>
+    <t>Διαχειριστής</t>
+  </si>
+  <si>
+    <t>Προϊστάμενος</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +2964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2969,10 +2975,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2984,9 +2990,10 @@
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="10" max="10" width="32.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3023,8 +3030,11 @@
       <c r="L1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3061,8 +3071,11 @@
       <c r="L2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3099,8 +3112,11 @@
       <c r="L3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3137,8 +3153,11 @@
       <c r="L4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3174,6 +3193,9 @@
       </c>
       <c r="L5">
         <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
